--- a/01日本語/log/动词变形.xlsx
+++ b/01日本語/log/动词变形.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ます形" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="ば形（假定）" sheetId="8" r:id="rId6"/>
     <sheet name="可能形" sheetId="9" r:id="rId7"/>
     <sheet name="受身形（被动）" sheetId="10" r:id="rId8"/>
+    <sheet name="使役形" sheetId="11" r:id="rId9"/>
+    <sheet name="使役受身形" sheetId="12" r:id="rId10"/>
+    <sheet name="动词活用" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="178">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,12 +385,435 @@
     <t>される</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>あ段＋せる
+う＞わ、ある＞ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i/e+させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>せる＞せられる
+あ段＋（せら）れる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+あ段＋される
+す＞さ、あ段＋せされる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i/e+させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役受身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う、つ、る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う、つ、る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬ、ぶ、む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬ、ぶ、む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く、ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く、ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ん＋で/だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い＋て/た
+い＋で/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あ段（う&gt;わ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋せられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>え段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て/た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋ば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一类
+（五段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>って/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋て/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＋よう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类
+（一段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三类
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サ变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来る（く）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>して/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>して/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きて/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通体终止形/
+连体修饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接续/过去，完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动/被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼貌体终止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある：否定形&gt;ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く：行って/た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要る（いる）：没有过去式（方言除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +856,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -439,7 +873,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -619,13 +1053,424 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,65 +1480,266 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,120 +2037,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1114,6 +2160,562 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="B8:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="3" width="11.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="48"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="3" width="9.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11" style="17"/>
+    <col min="8" max="8" width="11.25" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="71"/>
+    </row>
+    <row r="7" spans="2:14" ht="28" x14ac:dyDescent="0.3">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="72"/>
+    </row>
+    <row r="9" spans="2:14" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+    </row>
+    <row r="10" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="79"/>
+      <c r="C12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,120 +2741,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1287,114 +2889,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1430,114 +3032,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1573,114 +3175,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1716,114 +3318,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1846,7 +3448,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1859,114 +3461,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1988,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2002,115 +3604,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="57" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="3" width="11.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="48"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
